--- a/data/draft_picks_all_rounds.xlsx
+++ b/data/draft_picks_all_rounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annie\Repos\wnba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B3FC87-9CBF-4AED-A6F3-A956344783E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED2E56-1FE6-469F-8102-5494E1354093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="By Player" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aggregated!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aggregated!$A$1:$H$178</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -8201,7 +8201,7 @@
   <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12845,8 +12845,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
